--- a/data/trans_dic/P24D-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P24D-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.4176307380222006</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.3373095231812342</v>
+        <v>0.3373095231812341</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.3145867127502547</v>
@@ -697,7 +697,7 @@
         <v>0.4283733529930403</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.4061422859499634</v>
+        <v>0.4061422859499635</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.27745431207121</v>
+        <v>0.2788929649396549</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3969241457383986</v>
+        <v>0.3952463919113951</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.355602761666631</v>
+        <v>0.3498019489863782</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2704015072267919</v>
+        <v>0.2657143388643631</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2433153338929165</v>
+        <v>0.2430511859539363</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4267479566935544</v>
+        <v>0.4321963126969101</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3583227868954824</v>
+        <v>0.3693623865104857</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4424775734599585</v>
+        <v>0.4388360585053919</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2869768557631471</v>
+        <v>0.2835034490883319</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.4288029585061049</v>
+        <v>0.4294824119451338</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3773034619071394</v>
+        <v>0.3726641893517026</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3481575092395965</v>
+        <v>0.352088958556641</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3803759649705284</v>
+        <v>0.3799010148248524</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5012859177117798</v>
+        <v>0.5082858766669872</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4855555655772584</v>
+        <v>0.487855483914386</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4215566478813769</v>
+        <v>0.419715850749237</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.389691530407331</v>
+        <v>0.3811816961107732</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5813426874917338</v>
+        <v>0.5765086483889234</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5285774960759513</v>
+        <v>0.5395974248065082</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6232069524787093</v>
+        <v>0.6136779997294379</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3699883033981481</v>
+        <v>0.3625325855794577</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5170686045766312</v>
+        <v>0.5173561313185744</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4835320959194094</v>
+        <v>0.4793655081041436</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4701307238006978</v>
+        <v>0.4696237482520366</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.4480941581127734</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.4323944574142194</v>
+        <v>0.4323944574142193</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.3113156780185566</v>
@@ -833,7 +833,7 @@
         <v>0.4360325479663363</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.3843196409802868</v>
+        <v>0.3843196409802867</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2495342632501012</v>
+        <v>0.2529668510620983</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4264358060484653</v>
+        <v>0.4285347286481212</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3896375119796307</v>
+        <v>0.3884428540195767</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3051184909377419</v>
+        <v>0.30375503094158</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3109241327761398</v>
+        <v>0.3097501894700513</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4653499783209377</v>
+        <v>0.4631490938562539</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4077494709579463</v>
+        <v>0.4071708630860089</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3918062979841874</v>
+        <v>0.3896362033501614</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2872829920052477</v>
+        <v>0.2877901238394097</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.4544480699348686</v>
+        <v>0.4551862475810983</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.4103164687107606</v>
+        <v>0.4080358100664928</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3524751731898023</v>
+        <v>0.3529004745604603</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3165233767138911</v>
+        <v>0.3177591206614073</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4963170468473547</v>
+        <v>0.5008987628510838</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4611271682879658</v>
+        <v>0.4618204815790395</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3919416552411182</v>
+        <v>0.3904551647723728</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3932249773519503</v>
+        <v>0.3930802810828554</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5465298003675488</v>
+        <v>0.5496871902029205</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4871523392358415</v>
+        <v>0.485045718496771</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4741810870558151</v>
+        <v>0.4731934794395557</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3364901829881844</v>
+        <v>0.3391095694311086</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5060118648152125</v>
+        <v>0.5076976104800479</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.461762747481776</v>
+        <v>0.4617938297887201</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4170732870392724</v>
+        <v>0.4135099629795335</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.269502120685041</v>
+        <v>0.2759040222687063</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.39135508269622</v>
+        <v>0.3923101561130587</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3686330845830315</v>
+        <v>0.3788431383283373</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3413138208092337</v>
+        <v>0.3451587612925919</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.302467570809953</v>
+        <v>0.3052618638169738</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4577360742900228</v>
+        <v>0.4546295898189432</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3366855164847699</v>
+        <v>0.3384846610039477</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3220561134280955</v>
+        <v>0.3120728915188682</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3035080873071295</v>
+        <v>0.3091934991966888</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4492266458335077</v>
+        <v>0.4484037458110852</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3811309372381912</v>
+        <v>0.3838282507311262</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3558294388266983</v>
+        <v>0.3572536665696085</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4137856832761551</v>
+        <v>0.4210392908229535</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5629503394048029</v>
+        <v>0.5601041176742728</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5534622062722163</v>
+        <v>0.5563289125929721</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5516484566270002</v>
+        <v>0.5506764151394757</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.470794918699097</v>
+        <v>0.4718364083296216</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6424712179999889</v>
+        <v>0.6364811956021055</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5139275679736836</v>
+        <v>0.5193629800698312</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4774617946426517</v>
+        <v>0.4775698828822728</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4106281500547693</v>
+        <v>0.4136771685235651</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5755090931702316</v>
+        <v>0.5721107692371828</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.5132784764041952</v>
+        <v>0.5064870583095882</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4885959839638237</v>
+        <v>0.4877593064502331</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.4446066540831166</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.4378607475558143</v>
+        <v>0.4378607475558142</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.3214590841093062</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2799921690126399</v>
+        <v>0.2815375829657055</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4341574324831877</v>
+        <v>0.4367295178380369</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3996188121095465</v>
+        <v>0.4016267298326238</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3200565897129153</v>
+        <v>0.3210123236715296</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3178042204807369</v>
+        <v>0.3146560323284813</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.479022985276682</v>
+        <v>0.480757613417101</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4088992192523787</v>
+        <v>0.4109407758215822</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4014134488732231</v>
+        <v>0.4065427507825815</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3004022731049635</v>
+        <v>0.3022655502971323</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4600422358756732</v>
+        <v>0.461087635932615</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4129037966758503</v>
+        <v>0.415983215994822</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3652762375107524</v>
+        <v>0.3655784898708363</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3274687868622447</v>
+        <v>0.3313015520276268</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4946564964389009</v>
+        <v>0.4934621880821137</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4598223309293657</v>
+        <v>0.4627828782683642</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3935584626104418</v>
+        <v>0.3941434388012078</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3799666579407184</v>
+        <v>0.3827367057278952</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.545888377354917</v>
+        <v>0.5488859933719186</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.47388393826571</v>
+        <v>0.4774243231676344</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4684831384892987</v>
+        <v>0.4702254617634326</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3418427170671687</v>
+        <v>0.3411321607454018</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5037919366683772</v>
+        <v>0.5028310586864186</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4591899199091368</v>
+        <v>0.4583262461744216</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.416857188654213</v>
+        <v>0.416957179662332</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>103663</v>
+        <v>104201</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>132972</v>
+        <v>132410</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>79801</v>
+        <v>78499</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>41231</v>
+        <v>40516</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>42955</v>
+        <v>42908</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>85365</v>
+        <v>86455</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>48809</v>
+        <v>50313</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>37816</v>
+        <v>37505</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>157885</v>
+        <v>155974</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>229428</v>
+        <v>229791</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>136065</v>
+        <v>134392</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>82842</v>
+        <v>83777</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>142117</v>
+        <v>141940</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>167933</v>
+        <v>170278</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>108964</v>
+        <v>109480</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>64279</v>
+        <v>63999</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>68797</v>
+        <v>67294</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>116290</v>
+        <v>115323</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>72000</v>
+        <v>73501</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>53262</v>
+        <v>52447</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>203555</v>
+        <v>199453</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>276653</v>
+        <v>276807</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>174374</v>
+        <v>172871</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>111865</v>
+        <v>111744</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>203829</v>
+        <v>206633</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>363256</v>
+        <v>365043</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>313625</v>
+        <v>312663</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>192509</v>
+        <v>191648</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>167650</v>
+        <v>167017</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>293883</v>
+        <v>292493</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>269505</v>
+        <v>269123</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>194889</v>
+        <v>193809</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>389566</v>
+        <v>390254</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>674116</v>
+        <v>675211</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>601472</v>
+        <v>598129</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>397713</v>
+        <v>398192</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>258548</v>
+        <v>259557</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>422783</v>
+        <v>426686</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>371168</v>
+        <v>371726</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>247288</v>
+        <v>246350</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>212027</v>
+        <v>211949</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>345151</v>
+        <v>347145</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>321987</v>
+        <v>320595</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>235863</v>
+        <v>235372</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>456293</v>
+        <v>459845</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>750604</v>
+        <v>753104</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>676886</v>
+        <v>676931</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>470601</v>
+        <v>466581</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>51304</v>
+        <v>52523</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>63179</v>
+        <v>63333</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>50191</v>
+        <v>51581</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>37641</v>
+        <v>38065</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>41963</v>
+        <v>42350</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>62997</v>
+        <v>62569</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>40554</v>
+        <v>40771</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>37578</v>
+        <v>36413</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>99885</v>
+        <v>101756</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>134347</v>
+        <v>134101</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>97800</v>
+        <v>98493</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>80760</v>
+        <v>81083</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>78771</v>
+        <v>80152</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>90880</v>
+        <v>90421</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>75356</v>
+        <v>75746</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>60837</v>
+        <v>60730</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>65315</v>
+        <v>65460</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>88421</v>
+        <v>87597</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>61904</v>
+        <v>62558</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>55710</v>
+        <v>55723</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>135138</v>
+        <v>136142</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>172113</v>
+        <v>171097</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>131710</v>
+        <v>129968</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>110893</v>
+        <v>110703</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>386621</v>
+        <v>388755</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>585367</v>
+        <v>588835</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>465747</v>
+        <v>468087</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>286032</v>
+        <v>286886</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>271555</v>
+        <v>268865</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>464266</v>
+        <v>465947</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>375216</v>
+        <v>377090</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>280811</v>
+        <v>284399</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>671490</v>
+        <v>675655</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1066137</v>
+        <v>1068560</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>860122</v>
+        <v>866536</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>581976</v>
+        <v>582457</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>452178</v>
+        <v>457470</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>666936</v>
+        <v>665326</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>535913</v>
+        <v>539363</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>351720</v>
+        <v>352243</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>324672</v>
+        <v>327039</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>529072</v>
+        <v>531977</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>434848</v>
+        <v>438096</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>327730</v>
+        <v>328949</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>764122</v>
+        <v>762533</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1167526</v>
+        <v>1165299</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>956540</v>
+        <v>954741</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>664157</v>
+        <v>664316</v>
       </c>
     </row>
     <row r="20">
